--- a/train_tools/qna/answer_data1.xlsx
+++ b/train_tools/qna/answer_data1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F95B42-5C2A-4AA5-AFFF-0F7539DEB8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B1EDA-2520-4614-A07E-025BC2403140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1960" yWindow="1140" windowWidth="19200" windowHeight="11690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="486">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -10344,6 +10344,82 @@
 ★ 숭실대학교 관련 다른 정보가 궁금하다면? ★
 ex) 전정공 번호 뭐야? / 교직팀 위치 알려줘 / 수강신청 날짜 언제야? / 오늘 점심 메뉴 추천해줘
 등으로 질문해 보세요.</t>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/12.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/14.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/11.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/0.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/10.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/1.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/4.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/15.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/18.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/3.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/17.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/8.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/2.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/16.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/9.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/5.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/6.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/13.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/7.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10467,7 +10543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10483,6 +10559,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10791,8 +10870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="C174" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D176" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12144,8 +12223,8 @@
       <c r="C96" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>7</v>
+      <c r="D96" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="153" x14ac:dyDescent="0.45">
@@ -12172,8 +12251,8 @@
       <c r="C98" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>7</v>
+      <c r="D98" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="221" x14ac:dyDescent="0.45">
@@ -12186,8 +12265,8 @@
       <c r="C99" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>7</v>
+      <c r="D99" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="221" x14ac:dyDescent="0.45">
@@ -12284,8 +12363,8 @@
       <c r="C106" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>7</v>
+      <c r="D106" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12298,8 +12377,8 @@
       <c r="C107" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>7</v>
+      <c r="D107" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12312,8 +12391,8 @@
       <c r="C108" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>7</v>
+      <c r="D108" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12326,8 +12405,8 @@
       <c r="C109" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>7</v>
+      <c r="D109" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12340,8 +12419,8 @@
       <c r="C110" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>7</v>
+      <c r="D110" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12354,8 +12433,8 @@
       <c r="C111" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>7</v>
+      <c r="D111" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12368,8 +12447,8 @@
       <c r="C112" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>7</v>
+      <c r="D112" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12382,8 +12461,8 @@
       <c r="C113" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>7</v>
+      <c r="D113" s="6" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12396,8 +12475,8 @@
       <c r="C114" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>7</v>
+      <c r="D114" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12410,8 +12489,8 @@
       <c r="C115" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>7</v>
+      <c r="D115" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12424,8 +12503,8 @@
       <c r="C116" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>7</v>
+      <c r="D116" s="6" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12438,8 +12517,8 @@
       <c r="C117" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>7</v>
+      <c r="D117" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12452,8 +12531,8 @@
       <c r="C118" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>7</v>
+      <c r="D118" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12466,8 +12545,8 @@
       <c r="C119" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>7</v>
+      <c r="D119" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12480,8 +12559,8 @@
       <c r="C120" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>7</v>
+      <c r="D120" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12494,8 +12573,8 @@
       <c r="C121" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>7</v>
+      <c r="D121" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12508,8 +12587,8 @@
       <c r="C122" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
+      <c r="D122" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12522,8 +12601,8 @@
       <c r="C123" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>7</v>
+      <c r="D123" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12536,8 +12615,8 @@
       <c r="C124" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
+      <c r="D124" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12550,8 +12629,8 @@
       <c r="C125" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
+      <c r="D125" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12564,8 +12643,8 @@
       <c r="C126" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>7</v>
+      <c r="D126" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12578,8 +12657,8 @@
       <c r="C127" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
+      <c r="D127" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12592,8 +12671,8 @@
       <c r="C128" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>7</v>
+      <c r="D128" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12606,8 +12685,8 @@
       <c r="C129" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>7</v>
+      <c r="D129" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12620,8 +12699,8 @@
       <c r="C130" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
+      <c r="D130" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12634,8 +12713,8 @@
       <c r="C131" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>7</v>
+      <c r="D131" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12648,8 +12727,8 @@
       <c r="C132" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>7</v>
+      <c r="D132" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12662,8 +12741,8 @@
       <c r="C133" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>7</v>
+      <c r="D133" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12676,8 +12755,8 @@
       <c r="C134" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>7</v>
+      <c r="D134" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12690,8 +12769,8 @@
       <c r="C135" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>7</v>
+      <c r="D135" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12704,8 +12783,8 @@
       <c r="C136" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>7</v>
+      <c r="D136" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12718,8 +12797,8 @@
       <c r="C137" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>7</v>
+      <c r="D137" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12732,8 +12811,8 @@
       <c r="C138" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>7</v>
+      <c r="D138" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="170" x14ac:dyDescent="0.45">
@@ -12746,8 +12825,8 @@
       <c r="C139" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>7</v>
+      <c r="D139" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="170" x14ac:dyDescent="0.45">
@@ -12760,8 +12839,8 @@
       <c r="C140" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
+      <c r="D140" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12774,8 +12853,8 @@
       <c r="C141" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>7</v>
+      <c r="D141" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12788,8 +12867,8 @@
       <c r="C142" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>7</v>
+      <c r="D142" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12830,8 +12909,8 @@
       <c r="C145" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>7</v>
+      <c r="D145" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12844,8 +12923,8 @@
       <c r="C146" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>7</v>
+      <c r="D146" s="6" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -12858,8 +12937,8 @@
       <c r="C147" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>7</v>
+      <c r="D147" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12872,8 +12951,8 @@
       <c r="C148" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>7</v>
+      <c r="D148" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12886,8 +12965,8 @@
       <c r="C149" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>7</v>
+      <c r="D149" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12900,8 +12979,8 @@
       <c r="C150" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>7</v>
+      <c r="D150" s="6" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12914,8 +12993,8 @@
       <c r="C151" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
+      <c r="D151" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12928,8 +13007,8 @@
       <c r="C152" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>7</v>
+      <c r="D152" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="187" x14ac:dyDescent="0.45">
@@ -12970,8 +13049,8 @@
       <c r="C155" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
+      <c r="D155" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -12984,8 +13063,8 @@
       <c r="C156" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>7</v>
+      <c r="D156" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="204" x14ac:dyDescent="0.45">
@@ -13026,8 +13105,8 @@
       <c r="C159" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
+      <c r="D159" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13054,8 +13133,8 @@
       <c r="C161" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
+      <c r="D161" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13068,8 +13147,8 @@
       <c r="C162" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>7</v>
+      <c r="D162" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -13082,8 +13161,8 @@
       <c r="C163" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>7</v>
+      <c r="D163" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="170" x14ac:dyDescent="0.45">
@@ -13138,8 +13217,8 @@
       <c r="C167" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>7</v>
+      <c r="D167" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13152,8 +13231,8 @@
       <c r="C168" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
+      <c r="D168" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13208,8 +13287,8 @@
       <c r="C172" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>7</v>
+      <c r="D172" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -13222,8 +13301,8 @@
       <c r="C173" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>7</v>
+      <c r="D173" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="255" x14ac:dyDescent="0.45">
@@ -13236,8 +13315,8 @@
       <c r="C174" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>7</v>
+      <c r="D174" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13250,8 +13329,8 @@
       <c r="C175" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
+      <c r="D175" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="221" x14ac:dyDescent="0.45">
@@ -13264,8 +13343,8 @@
       <c r="C176" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>7</v>
+      <c r="D176" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="204" x14ac:dyDescent="0.45">
@@ -13278,8 +13357,8 @@
       <c r="C177" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
+      <c r="D177" s="6" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="289" x14ac:dyDescent="0.45">
@@ -13292,8 +13371,8 @@
       <c r="C178" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>7</v>
+      <c r="D178" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -13306,8 +13385,8 @@
       <c r="C179" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>7</v>
+      <c r="D179" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -13320,8 +13399,8 @@
       <c r="C180" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>7</v>
+      <c r="D180" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="153" x14ac:dyDescent="0.45">
@@ -13334,8 +13413,8 @@
       <c r="C181" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>7</v>
+      <c r="D181" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="306" x14ac:dyDescent="0.45">
@@ -13348,8 +13427,8 @@
       <c r="C182" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>7</v>
+      <c r="D182" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -13362,8 +13441,8 @@
       <c r="C183" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>7</v>
+      <c r="D183" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="204" x14ac:dyDescent="0.45">
@@ -13376,8 +13455,8 @@
       <c r="C184" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>7</v>
+      <c r="D184" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="255" x14ac:dyDescent="0.45">
@@ -13390,8 +13469,8 @@
       <c r="C185" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>7</v>
+      <c r="D185" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="221" x14ac:dyDescent="0.45">
@@ -13404,8 +13483,8 @@
       <c r="C186" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>7</v>
+      <c r="D186" s="6" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -13472,8 +13551,8 @@
       <c r="C191" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>7</v>
+      <c r="D191" s="6" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="170" x14ac:dyDescent="0.45">
@@ -13486,8 +13565,8 @@
       <c r="C192" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>7</v>
+      <c r="D192" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="204" x14ac:dyDescent="0.45">
@@ -13500,8 +13579,8 @@
       <c r="C193" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
+      <c r="D193" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13528,8 +13607,8 @@
       <c r="C195" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
+      <c r="D195" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13542,8 +13621,8 @@
       <c r="C196" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>7</v>
+      <c r="D196" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13556,8 +13635,8 @@
       <c r="C197" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>7</v>
+      <c r="D197" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13570,8 +13649,8 @@
       <c r="C198" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>7</v>
+      <c r="D198" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13584,8 +13663,8 @@
       <c r="C199" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>7</v>
+      <c r="D199" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13598,8 +13677,8 @@
       <c r="C200" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>7</v>
+      <c r="D200" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13612,8 +13691,8 @@
       <c r="C201" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>7</v>
+      <c r="D201" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13626,8 +13705,8 @@
       <c r="C202" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
+      <c r="D202" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13640,8 +13719,8 @@
       <c r="C203" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>7</v>
+      <c r="D203" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13654,8 +13733,8 @@
       <c r="C204" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>7</v>
+      <c r="D204" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13668,8 +13747,8 @@
       <c r="C205" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>7</v>
+      <c r="D205" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -13682,8 +13761,8 @@
       <c r="C206" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>7</v>
+      <c r="D206" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -14042,8 +14121,94 @@
   <hyperlinks>
     <hyperlink ref="C228" r:id="rId1" xr:uid="{383B9B62-6B04-4751-A3F3-CCB686E5D31F}"/>
     <hyperlink ref="C227" r:id="rId2" xr:uid="{AEA8C1EA-7E75-4808-B422-8F1C61305A55}"/>
+    <hyperlink ref="D167" r:id="rId3" xr:uid="{0D3D7B5D-E335-4DBA-9EA8-20910E210ABF}"/>
+    <hyperlink ref="D98" r:id="rId4" xr:uid="{34ADD887-C1B5-452F-B771-8B7AABE41FBF}"/>
+    <hyperlink ref="D99" r:id="rId5" xr:uid="{A9E15653-67B3-4034-BE82-007881CC9248}"/>
+    <hyperlink ref="D139" r:id="rId6" xr:uid="{C35322F7-10E2-48C7-9CF3-1BF3473610D0}"/>
+    <hyperlink ref="D140" r:id="rId7" xr:uid="{59E0B064-B231-4E9E-ACB6-D1E1A8629F11}"/>
+    <hyperlink ref="D96" r:id="rId8" xr:uid="{CD539D6D-5A72-4153-954D-35A2F79687B2}"/>
+    <hyperlink ref="D106" r:id="rId9" xr:uid="{D3AFA48A-83C5-42ED-8F92-F0D7676B5C1B}"/>
+    <hyperlink ref="D109" r:id="rId10" xr:uid="{7839E170-0ECA-44B5-8E67-E63A589DFDB6}"/>
+    <hyperlink ref="D149" r:id="rId11" xr:uid="{FB8733A4-F66A-49F2-98D0-D79A3FCC4C24}"/>
+    <hyperlink ref="D161" r:id="rId12" xr:uid="{C29DBBCD-E183-418C-8FA4-A8CBDD9EA71B}"/>
+    <hyperlink ref="D185" r:id="rId13" xr:uid="{4395D957-630D-4D63-8D8C-29B2A63BD490}"/>
+    <hyperlink ref="D107" r:id="rId14" xr:uid="{83DC9980-D485-4C9A-9A83-57655B12A279}"/>
+    <hyperlink ref="D117" r:id="rId15" xr:uid="{1C31B509-6423-4553-8A27-87342F433137}"/>
+    <hyperlink ref="D118" r:id="rId16" xr:uid="{379F209B-2368-49CF-8B55-7D075DC2B2B4}"/>
+    <hyperlink ref="D129" r:id="rId17" xr:uid="{F1398D86-2FF8-4FDB-A589-C6CCA469F465}"/>
+    <hyperlink ref="D127" r:id="rId18" xr:uid="{201D867C-1FD5-4D20-B71D-DFFE50BFDA57}"/>
+    <hyperlink ref="D135" r:id="rId19" xr:uid="{0717F06B-ED1B-4D04-AD15-E8CC3A7CD777}"/>
+    <hyperlink ref="D136" r:id="rId20" xr:uid="{79214C0C-4129-4397-BD56-00A3BDDF86CA}"/>
+    <hyperlink ref="D173" r:id="rId21" xr:uid="{FE448E3F-3CAD-4B83-A57C-15B7292CDF09}"/>
+    <hyperlink ref="D108" r:id="rId22" xr:uid="{B8AFCCF1-988D-4C72-9365-04EDA9E369FA}"/>
+    <hyperlink ref="D114" r:id="rId23" xr:uid="{90897512-1F23-42EB-A7D5-37DDAEC0240E}"/>
+    <hyperlink ref="D145" r:id="rId24" xr:uid="{07BFA219-1779-41DD-ADB3-B42A3A2B10D8}"/>
+    <hyperlink ref="D162" r:id="rId25" xr:uid="{54867975-C995-4CBD-8CFF-8D41ACCFD43D}"/>
+    <hyperlink ref="D184" r:id="rId26" xr:uid="{8BAE90D9-D2D1-40CA-A741-4FB4EC748AC1}"/>
+    <hyperlink ref="D110" r:id="rId27" xr:uid="{3EEB9C59-F45E-4898-AB17-8B7328DF53F5}"/>
+    <hyperlink ref="D111" r:id="rId28" xr:uid="{BDBE0CD6-53CE-4D54-857C-65D674030226}"/>
+    <hyperlink ref="D159" r:id="rId29" xr:uid="{55C0F1A4-FC23-4654-A300-39BA08CA6EE6}"/>
+    <hyperlink ref="D174" r:id="rId30" xr:uid="{B6A4410E-87C8-4E66-8247-AE6F28BE6212}"/>
+    <hyperlink ref="D112" r:id="rId31" xr:uid="{C9E53FEC-62D5-4628-A0B5-FB89F39B5934}"/>
+    <hyperlink ref="D178" r:id="rId32" xr:uid="{E5F3CCE6-D29E-4134-8D99-061C3A1405B4}"/>
+    <hyperlink ref="D195" r:id="rId33" xr:uid="{1B951EC1-5181-42E1-9137-287787E4A01F}"/>
+    <hyperlink ref="D196" r:id="rId34" xr:uid="{C3E9700A-2C1B-4B3D-9730-DC3FFC0A17B3}"/>
+    <hyperlink ref="D197" r:id="rId35" xr:uid="{B906945A-D900-428E-8E69-FC812CC2093B}"/>
+    <hyperlink ref="D198" r:id="rId36" xr:uid="{F4D4DEEF-19BE-441E-B9B1-2526D3DCB0EC}"/>
+    <hyperlink ref="D199" r:id="rId37" xr:uid="{075C8418-9181-4EE9-A347-180360335369}"/>
+    <hyperlink ref="D200" r:id="rId38" xr:uid="{99BF2517-6F89-40B5-80C0-772AAE9451A1}"/>
+    <hyperlink ref="D201" r:id="rId39" xr:uid="{966E7DFB-D6CF-4DD8-8844-9237CEF020D4}"/>
+    <hyperlink ref="D202" r:id="rId40" xr:uid="{91FCB6D4-C3C7-49D4-A9C8-93C3748D33B4}"/>
+    <hyperlink ref="D203" r:id="rId41" xr:uid="{6CD26D6B-1AB0-43DA-901D-8A0B5D6F0C8A}"/>
+    <hyperlink ref="D204" r:id="rId42" xr:uid="{5E46586D-43CB-424A-84C4-CABE0DB3B155}"/>
+    <hyperlink ref="D205" r:id="rId43" xr:uid="{995CD009-1C07-42FB-89D2-A2EF1894D60A}"/>
+    <hyperlink ref="D206" r:id="rId44" xr:uid="{7E809CAC-68A2-4462-8166-BB3E196F6BCE}"/>
+    <hyperlink ref="D113" r:id="rId45" xr:uid="{3950CA21-99BA-4F84-B0D9-8948A061E252}"/>
+    <hyperlink ref="D191" r:id="rId46" xr:uid="{EF0635FA-915D-449E-918E-EB34DFED4FFD}"/>
+    <hyperlink ref="D115" r:id="rId47" xr:uid="{A57398D4-410F-4084-8E21-1FA8E99D27D4}"/>
+    <hyperlink ref="D163" r:id="rId48" xr:uid="{7ABF64FD-A054-4DBC-8399-CA038185E280}"/>
+    <hyperlink ref="D192" r:id="rId49" xr:uid="{4056D75D-2DC1-40DB-A798-E495BA06A651}"/>
+    <hyperlink ref="D116" r:id="rId50" xr:uid="{E2360D80-3A77-465E-9C56-FB840C8EF4A2}"/>
+    <hyperlink ref="D177" r:id="rId51" xr:uid="{B43AB4B1-4448-473D-A1EF-7C2E4B915765}"/>
+    <hyperlink ref="D119" r:id="rId52" xr:uid="{91E77A30-B712-4335-8B97-10A7D9C96A32}"/>
+    <hyperlink ref="D123" r:id="rId53" xr:uid="{396C14E4-DD8C-4A4E-8178-7566D58E98E9}"/>
+    <hyperlink ref="D124" r:id="rId54" xr:uid="{474C9F5A-8EFF-4FDD-BC35-233BF83C2401}"/>
+    <hyperlink ref="D126" r:id="rId55" xr:uid="{0560FFD9-BE62-4FB4-92FE-DB21D2676888}"/>
+    <hyperlink ref="D147" r:id="rId56" xr:uid="{310B2D95-75AD-4DCC-9513-F353F2827536}"/>
+    <hyperlink ref="D148" r:id="rId57" xr:uid="{8F7D5C13-6BB9-42B8-B545-6AF0F9A4F451}"/>
+    <hyperlink ref="D151" r:id="rId58" xr:uid="{A9425E9F-75F7-4349-931F-9ACF7C1091E4}"/>
+    <hyperlink ref="D152" r:id="rId59" xr:uid="{AC4DC88F-21B5-4FAE-AA2A-33DEE22656DA}"/>
+    <hyperlink ref="D168" r:id="rId60" xr:uid="{42002A5D-A569-43BE-A38B-F0EF64C0E101}"/>
+    <hyperlink ref="D193" r:id="rId61" xr:uid="{7F1713F1-9E1A-40AE-AB55-86D280DBD9F0}"/>
+    <hyperlink ref="D120" r:id="rId62" xr:uid="{1DCCF2C1-D20A-4BEF-AC27-31758C4B3CFE}"/>
+    <hyperlink ref="D121" r:id="rId63" xr:uid="{380B3C73-29E8-4C0F-BEDD-DE1FFF1318F5}"/>
+    <hyperlink ref="D128" r:id="rId64" xr:uid="{99894DD5-D61A-45E5-B149-5B8F2AFE1125}"/>
+    <hyperlink ref="D130" r:id="rId65" xr:uid="{B5D60B4F-6886-40AB-9422-949A7516C5B1}"/>
+    <hyperlink ref="D134" r:id="rId66" xr:uid="{347B5129-24F9-4DCB-9A30-D0B156E0E2A1}"/>
+    <hyperlink ref="D137" r:id="rId67" xr:uid="{3CC88C01-2A95-42AE-9CD8-F982ED4B0537}"/>
+    <hyperlink ref="D138" r:id="rId68" xr:uid="{4B56DF64-A85B-49FD-BCD9-B6C9A7DC370F}"/>
+    <hyperlink ref="D155" r:id="rId69" xr:uid="{9FACD82B-0830-4E75-A272-C4A9D091A5AD}"/>
+    <hyperlink ref="D156" r:id="rId70" xr:uid="{B78BD7E0-2628-4002-B975-EA0152E58892}"/>
+    <hyperlink ref="D183" r:id="rId71" xr:uid="{0625F40F-4161-4C14-9FC4-F325F6A02421}"/>
+    <hyperlink ref="D122" r:id="rId72" xr:uid="{D55D4405-043C-4DAD-85C9-B8F81D094397}"/>
+    <hyperlink ref="D172" r:id="rId73" xr:uid="{17E02425-C7BB-4EBE-80E1-D145DDB2C6FC}"/>
+    <hyperlink ref="D175" r:id="rId74" xr:uid="{149E8C92-74E2-4B02-8E85-05109CD295B4}"/>
+    <hyperlink ref="D125" r:id="rId75" xr:uid="{30FDFF7A-1FAA-400A-AEA0-E26616F40367}"/>
+    <hyperlink ref="D176" r:id="rId76" xr:uid="{2E7133D8-30E0-49F2-A5BA-72EFDF17EA38}"/>
+    <hyperlink ref="D131" r:id="rId77" xr:uid="{64304102-63C5-435E-80C4-021D770DFB02}"/>
+    <hyperlink ref="D132" r:id="rId78" xr:uid="{A062009C-E82B-48ED-8642-78EA17A8553C}"/>
+    <hyperlink ref="D133" r:id="rId79" xr:uid="{90ECF89C-BFF9-41E6-B7C4-EE2ECCFF897C}"/>
+    <hyperlink ref="D182" r:id="rId80" xr:uid="{84FCE9A7-12B7-457A-9805-643C544A7F79}"/>
+    <hyperlink ref="D141" r:id="rId81" xr:uid="{D2165D67-A427-44DD-87B0-B720BCD5D98E}"/>
+    <hyperlink ref="D179" r:id="rId82" xr:uid="{E4EEBEAC-1FA6-42BD-A5DE-093F71905346}"/>
+    <hyperlink ref="D142" r:id="rId83" xr:uid="{13C21345-E3A5-400F-BA1A-30EFD8A2A567}"/>
+    <hyperlink ref="D180" r:id="rId84" xr:uid="{92306054-C6CA-48A5-BF0F-6299DCC5931C}"/>
+    <hyperlink ref="D181" r:id="rId85" xr:uid="{4FBECBFE-FE23-4914-8F75-B6322E10D8E8}"/>
+    <hyperlink ref="D186" r:id="rId86" xr:uid="{1F9448EF-5094-4374-A500-5F115888BF28}"/>
+    <hyperlink ref="D150" r:id="rId87" xr:uid="{35760A04-B829-4695-B464-7C24DF3DA935}"/>
+    <hyperlink ref="D146" r:id="rId88" xr:uid="{62A3A651-6FA6-4239-A109-A575086F8916}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>